--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_GAAPGLAccountClassProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_GAAPGLAccountClassProfile_Regression_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED33E3A-46AF-4698-8324-EBE658D41E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE08C8B-6CA2-467A-BA5F-7A0AF8C6035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18780" windowHeight="9920" xr2:uid="{75A34C94-B21C-4705-BA56-409F86A5FE33}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{75A34C94-B21C-4705-BA56-409F86A5FE33}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
